--- a/biology/Médecine/Artère_ovarique/Artère_ovarique.xlsx
+++ b/biology/Médecine/Artère_ovarique/Artère_ovarique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ovarique</t>
+          <t>Artère_ovarique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères ovariques sont des vaisseaux sanguins qui fournissent aux ovaires un sang oxygéné, il s'agit d'une des trois vascularisations ovariennes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ovarique</t>
+          <t>Artère_ovarique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine et trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces artères naissent de la face antérieure l'aorte abdominale sous les artères rénales. Elles cheminent dans le ligament suspenseur de l'ovaire (en), en antérieur de la veine ovarique et de l'uretère[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces artères naissent de la face antérieure l'aorte abdominale sous les artères rénales. Elles cheminent dans le ligament suspenseur de l'ovaire (en), en antérieur de la veine ovarique et de l'uretère.
 Les artères ovariques proviennent de la différenciation femelle des artères génitales et correspondent aux artères testiculaires masculines.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ovarique</t>
+          <t>Artère_ovarique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Branches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des petites collatérales irriguent l'uretère et les trompes utérines et s'anastomosent avec  l'artère utérine[3] créant un shunt artériel.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des petites collatérales irriguent l'uretère et les trompes utérines et s'anastomosent avec  l'artère utérine créant un shunt artériel.
 D'autres collatérales se dirigent dans le ligament rond de l'utérus, à travers le canal inguinal, jusqu'au tégument des grandes lèvres et de l'aine.
 </t>
         </is>
